--- a/generated_docs/WR_89700562_WeekEnding_072725.xlsx
+++ b/generated_docs/WR_89700562_WeekEnding_072725.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 07/30/2025 01:48 PM</t>
+          <t>Report Generated On: 08/16/2025 12:48 AM</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>07/27/2025 to 07/27/25</t>
+          <t>07/21/2025 to 07/27/25</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">

--- a/generated_docs/WR_89700562_WeekEnding_072725.xlsx
+++ b/generated_docs/WR_89700562_WeekEnding_072725.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:48 AM</t>
+          <t>Report Generated On: 08/18/2025 09:48 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>14684.57</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>476.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +799,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>2858.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +833,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>215.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="H19" s="16" t="n">
-        <v>3550.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -926,7 +926,7 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>238.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -960,7 +960,7 @@
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>2620.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -994,7 +994,7 @@
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>107.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>31.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>61.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>62.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>62.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1276,7 +1276,7 @@
         </is>
       </c>
       <c r="H35" s="16" t="n">
-        <v>4389.949999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="G40" s="10" t="inlineStr"/>
       <c r="H40" s="11" t="n">
-        <v>1191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="G41" s="13" t="inlineStr"/>
       <c r="H41" s="14" t="n">
-        <v>833.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="G42" s="10" t="inlineStr"/>
       <c r="H42" s="11" t="n">
-        <v>238.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="G43" s="13" t="inlineStr"/>
       <c r="H43" s="14" t="n">
-        <v>238.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="H44" s="16" t="n">
-        <v>2501.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="G49" s="10" t="inlineStr"/>
       <c r="H49" s="11" t="n">
-        <v>2858.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1588,7 +1588,7 @@
       </c>
       <c r="G50" s="13" t="inlineStr"/>
       <c r="H50" s="14" t="n">
-        <v>238.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="G51" s="10" t="inlineStr"/>
       <c r="H51" s="11" t="n">
-        <v>215.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="G52" s="13" t="inlineStr"/>
       <c r="H52" s="14" t="n">
-        <v>238.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="G53" s="10" t="inlineStr"/>
       <c r="H53" s="11" t="n">
-        <v>476.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="G54" s="13" t="inlineStr"/>
       <c r="H54" s="14" t="n">
-        <v>215.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1734,7 +1734,7 @@
         </is>
       </c>
       <c r="H55" s="16" t="n">
-        <v>4242.88</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/generated_docs/WR_89700562_WeekEnding_072725.xlsx
+++ b/generated_docs/WR_89700562_WeekEnding_072725.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:48 PM</t>
+          <t>Report Generated On: 08/26/2025 10:01 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>14684.57</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P23</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -765,7 +761,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>476.4</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +795,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>0</v>
+        <v>2858.4</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +829,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>0</v>
+        <v>215.84</v>
       </c>
     </row>
     <row r="19">
@@ -843,7 +839,7 @@
         </is>
       </c>
       <c r="H19" s="16" t="n">
-        <v>0</v>
+        <v>3550.64</v>
       </c>
     </row>
     <row r="22">
@@ -926,7 +922,7 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>0</v>
+        <v>238.2</v>
       </c>
     </row>
     <row r="25">
@@ -960,7 +956,7 @@
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>0</v>
+        <v>2620.2</v>
       </c>
     </row>
     <row r="26">
@@ -994,7 +990,7 @@
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>0</v>
+        <v>107.92</v>
       </c>
     </row>
     <row r="27">
@@ -1028,7 +1024,7 @@
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="28">
@@ -1062,7 +1058,7 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>0</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="29">
@@ -1096,7 +1092,7 @@
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>0</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="30">
@@ -1130,7 +1126,7 @@
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>0</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="31">
@@ -1164,7 +1160,7 @@
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="32">
@@ -1198,7 +1194,7 @@
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>0</v>
+        <v>61.83</v>
       </c>
     </row>
     <row r="33">
@@ -1232,7 +1228,7 @@
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>0</v>
+        <v>62.16</v>
       </c>
     </row>
     <row r="34">
@@ -1266,7 +1262,7 @@
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>0</v>
+        <v>62.16</v>
       </c>
     </row>
     <row r="35">
@@ -1276,7 +1272,7 @@
         </is>
       </c>
       <c r="H35" s="16" t="n">
-        <v>0</v>
+        <v>4389.949999999999</v>
       </c>
     </row>
     <row r="38">
@@ -1359,7 +1355,7 @@
       </c>
       <c r="G40" s="10" t="inlineStr"/>
       <c r="H40" s="11" t="n">
-        <v>0</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="41">
@@ -1393,7 +1389,7 @@
       </c>
       <c r="G41" s="13" t="inlineStr"/>
       <c r="H41" s="14" t="n">
-        <v>0</v>
+        <v>833.7</v>
       </c>
     </row>
     <row r="42">
@@ -1427,7 +1423,7 @@
       </c>
       <c r="G42" s="10" t="inlineStr"/>
       <c r="H42" s="11" t="n">
-        <v>0</v>
+        <v>238.2</v>
       </c>
     </row>
     <row r="43">
@@ -1461,7 +1457,7 @@
       </c>
       <c r="G43" s="13" t="inlineStr"/>
       <c r="H43" s="14" t="n">
-        <v>0</v>
+        <v>238.2</v>
       </c>
     </row>
     <row r="44">
@@ -1471,7 +1467,7 @@
         </is>
       </c>
       <c r="H44" s="16" t="n">
-        <v>0</v>
+        <v>2501.1</v>
       </c>
     </row>
     <row r="47">
@@ -1554,7 +1550,7 @@
       </c>
       <c r="G49" s="10" t="inlineStr"/>
       <c r="H49" s="11" t="n">
-        <v>0</v>
+        <v>2858.4</v>
       </c>
     </row>
     <row r="50">
@@ -1588,7 +1584,7 @@
       </c>
       <c r="G50" s="13" t="inlineStr"/>
       <c r="H50" s="14" t="n">
-        <v>0</v>
+        <v>238.2</v>
       </c>
     </row>
     <row r="51">
@@ -1622,7 +1618,7 @@
       </c>
       <c r="G51" s="10" t="inlineStr"/>
       <c r="H51" s="11" t="n">
-        <v>0</v>
+        <v>215.84</v>
       </c>
     </row>
     <row r="52">
@@ -1656,7 +1652,7 @@
       </c>
       <c r="G52" s="13" t="inlineStr"/>
       <c r="H52" s="14" t="n">
-        <v>0</v>
+        <v>238.2</v>
       </c>
     </row>
     <row r="53">
@@ -1690,7 +1686,7 @@
       </c>
       <c r="G53" s="10" t="inlineStr"/>
       <c r="H53" s="11" t="n">
-        <v>0</v>
+        <v>476.4</v>
       </c>
     </row>
     <row r="54">
@@ -1724,7 +1720,7 @@
       </c>
       <c r="G54" s="13" t="inlineStr"/>
       <c r="H54" s="14" t="n">
-        <v>0</v>
+        <v>215.84</v>
       </c>
     </row>
     <row r="55">
@@ -1734,7 +1730,7 @@
         </is>
       </c>
       <c r="H55" s="16" t="n">
-        <v>0</v>
+        <v>4242.88</v>
       </c>
     </row>
   </sheetData>
